--- a/Corte de Apelaciones de Arica/1-2012001#988#1-O-ingresos_causas_por_materia-2021-10.xlsx
+++ b/Corte de Apelaciones de Arica/1-2012001#988#1-O-ingresos_causas_por_materia-2021-10.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="36">
   <si>
     <t>Materia</t>
   </si>
@@ -52,67 +52,64 @@
     <t>Homicidio.</t>
   </si>
   <si>
+    <t>Robo Con Violencia. Art.436 Inc. 1º 433, 438, 439.</t>
+  </si>
+  <si>
+    <t>Abuso Sexual De Mayor De 14 (Con Circunstancias De Violación</t>
+  </si>
+  <si>
     <t>Trafico De Pequeñas Cantidades (Art. 4).</t>
   </si>
   <si>
-    <t>Robo Con Violencia. Art.436 Inc. 1º 433, 438, 439.</t>
+    <t>Amenazas Condic.c/Personas Y Propiedades Art.296 1Y2,Art.297</t>
+  </si>
+  <si>
+    <t>Desacato (Art. 240 Codigo De Procedimiento Civil).</t>
+  </si>
+  <si>
+    <t>Conduc.estado De Ebriedad Con O Sin Daños O Lesiones Leves.</t>
+  </si>
+  <si>
+    <t>Robo De Vehiculo Motorizado.</t>
+  </si>
+  <si>
+    <t>Receptacion. Art. 456 Bis A.</t>
+  </si>
+  <si>
+    <t>Posesión Tenencia O Porte De Mun Y Sust Químicas</t>
+  </si>
+  <si>
+    <t>Violacion De Menor De 14 Años.</t>
+  </si>
+  <si>
+    <t>Lesiones Menos Graves.</t>
+  </si>
+  <si>
+    <t>No Dar Cuenta De Accidente De Transitoart. 195Ley De Tra.</t>
+  </si>
+  <si>
+    <t>Conduc.bajo La Influ Del Alcohol Caus Muer Art. 193 Inc 4.</t>
   </si>
   <si>
     <t>Falsificacion O Uso Malicioso De Doc Públ Art. 193,194,196</t>
   </si>
   <si>
+    <t>Maltrato Obra A Carabineros Art. 416 Bis Codigo Just.militar</t>
+  </si>
+  <si>
+    <t>Abuso Sexual Sin Contacto Art.366 Quater, Inc. 3°, 4° Y 5°</t>
+  </si>
+  <si>
+    <t>Abigeato.</t>
+  </si>
+  <si>
+    <t>Infringir Normas Higiénicas Y De Salubridad</t>
+  </si>
+  <si>
+    <t>Femicidio Intimo Art. 390 Bis</t>
+  </si>
+  <si>
     <t>Posesión O Tenencia De Armas Prohibidas</t>
-  </si>
-  <si>
-    <t>Conduc.bajo La Influ Del Alcohol Caus Muer Art. 193 Inc 4.</t>
-  </si>
-  <si>
-    <t>Desacato (Art. 240 Codigo De Procedimiento Civil).</t>
-  </si>
-  <si>
-    <t>Conduc.estado De Ebriedad Con O Sin Daños O Lesiones Leves.</t>
-  </si>
-  <si>
-    <t>Robo De Vehiculo Motorizado.</t>
-  </si>
-  <si>
-    <t>Violación De Mayor De 14 Años.</t>
-  </si>
-  <si>
-    <t>Receptacion. Art. 456 Bis A.</t>
-  </si>
-  <si>
-    <t>Posesión Tenencia O Porte De Mun Y Sust Químicas</t>
-  </si>
-  <si>
-    <t>Violacion De Menor De 14 Años.</t>
-  </si>
-  <si>
-    <t>Lesiones Menos Graves.</t>
-  </si>
-  <si>
-    <t>No Dar Cuenta De Accidente De Transitoart. 195Ley De Tra.</t>
-  </si>
-  <si>
-    <t>Maltrato Obra A Carabineros Art. 416 Bis Codigo Just.militar</t>
-  </si>
-  <si>
-    <t>Abuso Sexual Sin Contacto Art.366 Quater, Inc. 3°, 4° Y 5°</t>
-  </si>
-  <si>
-    <t>Abuso Sexual De Mayor De 14 (Con Circunstancias De Violación</t>
-  </si>
-  <si>
-    <t>Abigeato.</t>
-  </si>
-  <si>
-    <t>Infringir Normas Higiénicas Y De Salubridad</t>
-  </si>
-  <si>
-    <t>Femicidio Intimo Art. 390 Bis</t>
-  </si>
-  <si>
-    <t>Amenazas Condic.c/Personas Y Propiedades Art.296 1Y2,Art.297</t>
   </si>
   <si>
     <t>Corte De Apelaciones De Arica</t>
@@ -482,7 +479,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H26"/>
+  <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,16 +519,16 @@
         <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G2">
         <v>2021</v>
@@ -548,16 +545,16 @@
         <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G3">
         <v>2021</v>
@@ -574,16 +571,16 @@
         <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G4">
         <v>2021</v>
@@ -600,16 +597,16 @@
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G5">
         <v>2021</v>
@@ -626,16 +623,16 @@
         <v>2</v>
       </c>
       <c r="C6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G6">
         <v>2021</v>
@@ -652,16 +649,16 @@
         <v>2</v>
       </c>
       <c r="C7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G7">
         <v>2021</v>
@@ -675,19 +672,19 @@
         <v>14</v>
       </c>
       <c r="B8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G8">
         <v>2021</v>
@@ -704,16 +701,16 @@
         <v>1</v>
       </c>
       <c r="C9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G9">
         <v>2021</v>
@@ -730,16 +727,16 @@
         <v>1</v>
       </c>
       <c r="C10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G10">
         <v>2021</v>
@@ -756,16 +753,16 @@
         <v>1</v>
       </c>
       <c r="C11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G11">
         <v>2021</v>
@@ -782,16 +779,16 @@
         <v>1</v>
       </c>
       <c r="C12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G12">
         <v>2021</v>
@@ -808,16 +805,16 @@
         <v>1</v>
       </c>
       <c r="C13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D13" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F13" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G13">
         <v>2021</v>
@@ -834,16 +831,16 @@
         <v>1</v>
       </c>
       <c r="C14" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G14">
         <v>2021</v>
@@ -860,16 +857,16 @@
         <v>1</v>
       </c>
       <c r="C15" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D15" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E15" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F15" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G15">
         <v>2021</v>
@@ -886,16 +883,16 @@
         <v>1</v>
       </c>
       <c r="C16" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D16" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F16" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G16">
         <v>2021</v>
@@ -912,16 +909,16 @@
         <v>1</v>
       </c>
       <c r="C17" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D17" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E17" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F17" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G17">
         <v>2021</v>
@@ -938,16 +935,16 @@
         <v>1</v>
       </c>
       <c r="C18" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D18" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E18" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F18" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G18">
         <v>2021</v>
@@ -964,16 +961,16 @@
         <v>1</v>
       </c>
       <c r="C19" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D19" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E19" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F19" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G19">
         <v>2021</v>
@@ -990,16 +987,16 @@
         <v>1</v>
       </c>
       <c r="C20" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D20" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E20" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F20" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G20">
         <v>2021</v>
@@ -1016,16 +1013,16 @@
         <v>1</v>
       </c>
       <c r="C21" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D21" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E21" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F21" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G21">
         <v>2021</v>
@@ -1042,16 +1039,16 @@
         <v>1</v>
       </c>
       <c r="C22" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D22" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E22" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F22" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G22">
         <v>2021</v>
@@ -1068,16 +1065,16 @@
         <v>1</v>
       </c>
       <c r="C23" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D23" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E23" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F23" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G23">
         <v>2021</v>
@@ -1094,16 +1091,16 @@
         <v>1</v>
       </c>
       <c r="C24" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D24" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E24" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F24" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G24">
         <v>2021</v>
@@ -1120,47 +1117,21 @@
         <v>1</v>
       </c>
       <c r="C25" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D25" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E25" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F25" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G25">
         <v>2021</v>
       </c>
       <c r="H25">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
-      <c r="A26" t="s">
-        <v>32</v>
-      </c>
-      <c r="B26">
-        <v>1</v>
-      </c>
-      <c r="C26" t="s">
-        <v>33</v>
-      </c>
-      <c r="D26" t="s">
-        <v>34</v>
-      </c>
-      <c r="E26" t="s">
-        <v>35</v>
-      </c>
-      <c r="F26" t="s">
-        <v>36</v>
-      </c>
-      <c r="G26">
-        <v>2021</v>
-      </c>
-      <c r="H26">
         <v>10</v>
       </c>
     </row>
